--- a/class3/rockies_analyzed.xlsx
+++ b/class3/rockies_analyzed.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
   </bookViews>
@@ -13,6 +13,7 @@
     <sheet name="runs for against" sheetId="4" r:id="rId4"/>
     <sheet name="record by date" sheetId="5" r:id="rId5"/>
     <sheet name="average attendance" sheetId="6" r:id="rId6"/>
+    <sheet name="streaks" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">prepared_data!$A$1:$Z$140</definedName>
@@ -21,7 +22,7 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId7"/>
+    <pivotCache cacheId="39" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="534">
   <si>
     <t>Rk</t>
   </si>
@@ -1542,6 +1543,9 @@
     <t>Count of Gm#</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Count + Formula</t>
   </si>
   <si>
@@ -1654,6 +1658,15 @@
   </si>
   <si>
     <t>5) average, min, max attendance by home/road, day of week (doubleheader problem)</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>Max of streak_length</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +1992,11 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="streak_type" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="winning"/>
+        <s v="losing"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="streak_length" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="11"/>
@@ -2022,7 +2039,7 @@
     <x v="0"/>
     <n v="46032"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -2052,7 +2069,7 @@
     <x v="1"/>
     <n v="30222"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -2082,7 +2099,7 @@
     <x v="1"/>
     <n v="28720"/>
     <s v="+++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="3"/>
   </r>
   <r>
@@ -2112,7 +2129,7 @@
     <x v="0"/>
     <n v="49303"/>
     <s v="++++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="4"/>
   </r>
   <r>
@@ -2142,7 +2159,7 @@
     <x v="1"/>
     <n v="43812"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -2172,7 +2189,7 @@
     <x v="0"/>
     <n v="41363"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -2202,7 +2219,7 @@
     <x v="0"/>
     <n v="42019"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -2232,7 +2249,7 @@
     <x v="1"/>
     <n v="41051"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -2262,7 +2279,7 @@
     <x v="1"/>
     <n v="41188"/>
     <s v="+++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="3"/>
   </r>
   <r>
@@ -2292,7 +2309,7 @@
     <x v="1"/>
     <n v="48950"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -2322,7 +2339,7 @@
     <x v="1"/>
     <n v="45912"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -2352,7 +2369,7 @@
     <x v="0"/>
     <n v="44666"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -2382,7 +2399,7 @@
     <x v="1"/>
     <n v="22586"/>
     <s v="----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
@@ -2412,7 +2429,7 @@
     <x v="1"/>
     <n v="22600"/>
     <s v="-----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="5"/>
   </r>
   <r>
@@ -2442,7 +2459,7 @@
     <x v="1"/>
     <n v="22705"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -2472,7 +2489,7 @@
     <x v="0"/>
     <n v="31676"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -2502,7 +2519,7 @@
     <x v="1"/>
     <n v="31453"/>
     <s v="+++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="3"/>
   </r>
   <r>
@@ -2532,7 +2549,7 @@
     <x v="1"/>
     <n v="36474"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -2562,7 +2579,7 @@
     <x v="1"/>
     <n v="17444"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -2592,7 +2609,7 @@
     <x v="1"/>
     <n v="18792"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -2622,7 +2639,7 @@
     <x v="1"/>
     <n v="19633"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -2652,7 +2669,7 @@
     <x v="1"/>
     <n v="30186"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -2682,7 +2699,7 @@
     <x v="1"/>
     <n v="28058"/>
     <s v="----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
@@ -2712,7 +2729,7 @@
     <x v="0"/>
     <n v="34197"/>
     <s v="-----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="5"/>
   </r>
   <r>
@@ -2742,7 +2759,7 @@
     <x v="0"/>
     <n v="0"/>
     <s v="------"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="6"/>
   </r>
   <r>
@@ -2772,7 +2789,7 @@
     <x v="0"/>
     <n v="22621"/>
     <s v="-------"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="7"/>
   </r>
   <r>
@@ -2802,7 +2819,7 @@
     <x v="1"/>
     <n v="32974"/>
     <s v="--------"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="8"/>
   </r>
   <r>
@@ -2832,7 +2849,7 @@
     <x v="0"/>
     <n v="30710"/>
     <s v="---------"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="9"/>
   </r>
   <r>
@@ -2862,7 +2879,7 @@
     <x v="1"/>
     <n v="28150"/>
     <s v="----------"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="10"/>
   </r>
   <r>
@@ -2892,7 +2909,7 @@
     <x v="1"/>
     <n v="30129"/>
     <s v="-----------"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="11"/>
   </r>
   <r>
@@ -2922,7 +2939,7 @@
     <x v="1"/>
     <n v="42650"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -2952,7 +2969,7 @@
     <x v="1"/>
     <n v="46662"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -2982,7 +2999,7 @@
     <x v="1"/>
     <n v="48378"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3012,7 +3029,7 @@
     <x v="0"/>
     <n v="44990"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3042,7 +3059,7 @@
     <x v="1"/>
     <n v="24061"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -3072,7 +3089,7 @@
     <x v="1"/>
     <n v="21249"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3102,7 +3119,7 @@
     <x v="1"/>
     <n v="21714"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3132,7 +3149,7 @@
     <x v="0"/>
     <n v="25418"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3162,7 +3179,7 @@
     <x v="1"/>
     <n v="31226"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3192,7 +3209,7 @@
     <x v="0"/>
     <n v="32956"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -3222,7 +3239,7 @@
     <x v="1"/>
     <n v="30180"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3252,7 +3269,7 @@
     <x v="0"/>
     <n v="34404"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -3282,7 +3299,7 @@
     <x v="0"/>
     <n v="20516"/>
     <s v="+++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="3"/>
   </r>
   <r>
@@ -3312,7 +3329,7 @@
     <x v="1"/>
     <n v="22523"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3342,7 +3359,7 @@
     <x v="0"/>
     <n v="23917"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3372,7 +3389,7 @@
     <x v="1"/>
     <n v="22227"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -3402,7 +3419,7 @@
     <x v="0"/>
     <n v="23510"/>
     <s v="+++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="3"/>
   </r>
   <r>
@@ -3432,7 +3449,7 @@
     <x v="0"/>
     <n v="22166"/>
     <s v="++++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="4"/>
   </r>
   <r>
@@ -3462,7 +3479,7 @@
     <x v="1"/>
     <n v="25564"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3492,7 +3509,7 @@
     <x v="0"/>
     <n v="28148"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3522,7 +3539,7 @@
     <x v="1"/>
     <n v="24972"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3552,7 +3569,7 @@
     <x v="1"/>
     <n v="24575"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3582,7 +3599,7 @@
     <x v="1"/>
     <n v="32091"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3612,7 +3629,7 @@
     <x v="0"/>
     <n v="30373"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3642,7 +3659,7 @@
     <x v="0"/>
     <n v="35139"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3672,7 +3689,7 @@
     <x v="1"/>
     <n v="32043"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3702,7 +3719,7 @@
     <x v="1"/>
     <n v="33731"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -3732,7 +3749,7 @@
     <x v="0"/>
     <n v="30698"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3762,7 +3779,7 @@
     <x v="1"/>
     <n v="18003"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -3792,7 +3809,7 @@
     <x v="1"/>
     <n v="20355"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -3822,7 +3839,7 @@
     <x v="0"/>
     <n v="26647"/>
     <s v="----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
@@ -3852,7 +3869,7 @@
     <x v="0"/>
     <n v="20879"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -3882,7 +3899,7 @@
     <x v="1"/>
     <n v="21820"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -3912,7 +3929,7 @@
     <x v="0"/>
     <n v="22245"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -3942,7 +3959,7 @@
     <x v="1"/>
     <n v="33041"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -3972,7 +3989,7 @@
     <x v="0"/>
     <n v="30770"/>
     <s v="----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
@@ -4002,7 +4019,7 @@
     <x v="1"/>
     <n v="35841"/>
     <s v="-----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="5"/>
   </r>
   <r>
@@ -4032,7 +4049,7 @@
     <x v="0"/>
     <n v="35180"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -4062,7 +4079,7 @@
     <x v="0"/>
     <n v="41487"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -4092,7 +4109,7 @@
     <x v="1"/>
     <n v="30079"/>
     <s v="+++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="3"/>
   </r>
   <r>
@@ -4122,7 +4139,7 @@
     <x v="1"/>
     <n v="30367"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4152,7 +4169,7 @@
     <x v="0"/>
     <n v="30568"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -4182,7 +4199,7 @@
     <x v="1"/>
     <n v="41887"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -4212,7 +4229,7 @@
     <x v="0"/>
     <n v="41746"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4242,7 +4259,7 @@
     <x v="0"/>
     <n v="41795"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -4272,7 +4289,7 @@
     <x v="1"/>
     <n v="12125"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -4302,7 +4319,7 @@
     <x v="1"/>
     <n v="19206"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -4332,7 +4349,7 @@
     <x v="0"/>
     <n v="17655"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4362,7 +4379,7 @@
     <x v="1"/>
     <n v="16861"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -4392,7 +4409,7 @@
     <x v="1"/>
     <n v="22449"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -4422,7 +4439,7 @@
     <x v="1"/>
     <n v="42113"/>
     <s v="----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
@@ -4452,7 +4469,7 @@
     <x v="0"/>
     <n v="22996"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -4482,7 +4499,7 @@
     <x v="1"/>
     <n v="26232"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4512,7 +4529,7 @@
     <x v="1"/>
     <n v="24660"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -4542,7 +4559,7 @@
     <x v="1"/>
     <n v="30334"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -4572,7 +4589,7 @@
     <x v="1"/>
     <n v="48254"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -4602,7 +4619,7 @@
     <x v="0"/>
     <n v="40620"/>
     <s v="+++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="3"/>
   </r>
   <r>
@@ -4632,7 +4649,7 @@
     <x v="0"/>
     <n v="37047"/>
     <s v="++++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="4"/>
   </r>
   <r>
@@ -4662,7 +4679,7 @@
     <x v="1"/>
     <n v="31025"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4692,7 +4709,7 @@
     <x v="1"/>
     <n v="32245"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -4722,7 +4739,7 @@
     <x v="1"/>
     <n v="35027"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -4752,7 +4769,7 @@
     <x v="1"/>
     <n v="43012"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4782,7 +4799,7 @@
     <x v="0"/>
     <n v="33348"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -4812,7 +4829,7 @@
     <x v="1"/>
     <n v="37184"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -4842,7 +4859,7 @@
     <x v="1"/>
     <n v="41998"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4872,7 +4889,7 @@
     <x v="0"/>
     <n v="46828"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -4902,7 +4919,7 @@
     <x v="1"/>
     <n v="35070"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4932,7 +4949,7 @@
     <x v="1"/>
     <n v="36747"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -4962,7 +4979,7 @@
     <x v="0"/>
     <n v="38874"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4992,7 +5009,7 @@
     <x v="1"/>
     <n v="43518"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -5022,7 +5039,7 @@
     <x v="1"/>
     <n v="42568"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -5052,7 +5069,7 @@
     <x v="1"/>
     <n v="45216"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -5082,7 +5099,7 @@
     <x v="0"/>
     <n v="44743"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -5112,7 +5129,7 @@
     <x v="1"/>
     <n v="33107"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -5142,7 +5159,7 @@
     <x v="1"/>
     <n v="34376"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -5172,7 +5189,7 @@
     <x v="0"/>
     <n v="30196"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -5202,7 +5219,7 @@
     <x v="1"/>
     <n v="33622"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -5232,7 +5249,7 @@
     <x v="1"/>
     <n v="37115"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -5262,7 +5279,7 @@
     <x v="0"/>
     <n v="33157"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -5292,7 +5309,7 @@
     <x v="1"/>
     <n v="27194"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -5322,7 +5339,7 @@
     <x v="1"/>
     <n v="25611"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -5352,7 +5369,7 @@
     <x v="1"/>
     <n v="37175"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -5382,7 +5399,7 @@
     <x v="0"/>
     <n v="36573"/>
     <s v="----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
@@ -5412,7 +5429,7 @@
     <x v="1"/>
     <n v="33697"/>
     <s v="-----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="5"/>
   </r>
   <r>
@@ -5442,7 +5459,7 @@
     <x v="1"/>
     <n v="37554"/>
     <s v="------"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="6"/>
   </r>
   <r>
@@ -5472,7 +5489,7 @@
     <x v="0"/>
     <n v="28927"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -5502,7 +5519,7 @@
     <x v="1"/>
     <n v="24320"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -5532,7 +5549,7 @@
     <x v="1"/>
     <n v="24863"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -5562,7 +5579,7 @@
     <x v="1"/>
     <n v="25211"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -5592,7 +5609,7 @@
     <x v="1"/>
     <n v="31079"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -5622,7 +5639,7 @@
     <x v="1"/>
     <n v="46170"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -5652,7 +5669,7 @@
     <x v="0"/>
     <n v="33200"/>
     <s v="---"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
@@ -5682,7 +5699,7 @@
     <x v="1"/>
     <n v="13920"/>
     <s v="----"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="4"/>
   </r>
   <r>
@@ -5712,7 +5729,7 @@
     <x v="1"/>
     <n v="13863"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -5742,7 +5759,7 @@
     <x v="1"/>
     <n v="18328"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -5772,7 +5789,7 @@
     <x v="1"/>
     <n v="32607"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -5802,7 +5819,7 @@
     <x v="1"/>
     <n v="35838"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -5832,7 +5849,7 @@
     <x v="0"/>
     <n v="36271"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -5862,7 +5879,7 @@
     <x v="1"/>
     <n v="21386"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -5892,7 +5909,7 @@
     <x v="0"/>
     <n v="21550"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -5922,7 +5939,7 @@
     <x v="1"/>
     <n v="20411"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -5952,7 +5969,7 @@
     <x v="1"/>
     <n v="20574"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -5982,7 +5999,7 @@
     <x v="1"/>
     <n v="25863"/>
     <s v="++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="2"/>
   </r>
   <r>
@@ -6012,7 +6029,7 @@
     <x v="1"/>
     <n v="29196"/>
     <s v="+++"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="3"/>
   </r>
   <r>
@@ -6042,7 +6059,7 @@
     <x v="1"/>
     <n v="37672"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -6072,7 +6089,7 @@
     <x v="0"/>
     <n v="36649"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -6102,7 +6119,7 @@
     <x v="0"/>
     <n v="24585"/>
     <s v="+"/>
-    <s v="winning"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
   <r>
@@ -6132,7 +6149,7 @@
     <x v="1"/>
     <n v="19112"/>
     <s v="-"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -6162,7 +6179,7 @@
     <x v="1"/>
     <n v="22764"/>
     <s v="--"/>
-    <s v="losing"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
@@ -6192,14 +6209,14 @@
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <x v="2"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A12:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -6292,7 +6309,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -6385,7 +6402,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A11:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -6475,7 +6492,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -6561,7 +6578,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A27:E51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -6760,7 +6777,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A13:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -6873,7 +6890,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A1:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -6982,7 +6999,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A1:D21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -7171,6 +7188,78 @@
       </pivotArea>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A1:B6" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="28">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="26"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Max of streak_length" fld="27" subtotal="max" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7512,7 +7601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
@@ -7596,7 +7685,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Y1" t="s">
         <v>484</v>
@@ -7794,7 +7883,7 @@
         <v>43</v>
       </c>
       <c r="Y4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -7912,7 +8001,7 @@
         <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -16012,16 +16101,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="F1" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -16030,7 +16119,7 @@
         <v>486</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -16081,10 +16170,10 @@
         <v>18</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -16098,10 +16187,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F2" s="9">
         <v>6</v>
@@ -16179,10 +16268,10 @@
         <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="F3" s="9">
         <v>7</v>
@@ -16263,10 +16352,10 @@
         <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F4" s="9">
         <v>8</v>
@@ -16350,10 +16439,10 @@
         <v>44</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F5" s="9">
         <v>10</v>
@@ -16428,10 +16517,10 @@
         <v>51</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F6" s="9">
         <v>11</v>
@@ -16506,10 +16595,10 @@
         <v>56</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F7" s="9">
         <v>12</v>
@@ -16587,10 +16676,10 @@
         <v>62</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F8" s="9">
         <v>13</v>
@@ -16671,10 +16760,10 @@
         <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="F9" s="9">
         <v>14</v>
@@ -16755,10 +16844,10 @@
         <v>73</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F10" s="9">
         <v>15</v>
@@ -16839,10 +16928,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F11" s="9">
         <v>17</v>
@@ -16920,10 +17009,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F12" s="9">
         <v>18</v>
@@ -17004,10 +17093,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F13" s="9">
         <v>19</v>
@@ -17085,10 +17174,10 @@
         <v>89</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F14" s="9">
         <v>20</v>
@@ -17163,10 +17252,10 @@
         <v>95</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="F15" s="9">
         <v>21</v>
@@ -17244,10 +17333,10 @@
         <v>101</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F16" s="9">
         <v>22</v>
@@ -17322,10 +17411,10 @@
         <v>105</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F17" s="9">
         <v>23</v>
@@ -17403,10 +17492,10 @@
         <v>108</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F18" s="9">
         <v>24</v>
@@ -17484,10 +17573,10 @@
         <v>110</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F19" s="9">
         <v>25</v>
@@ -17565,10 +17654,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F20" s="9">
         <v>27</v>
@@ -17649,10 +17738,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="F21" s="9">
         <v>28</v>
@@ -17730,10 +17819,10 @@
         <v>121</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F22" s="9">
         <v>29</v>
@@ -17811,10 +17900,10 @@
         <v>124</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
@@ -17892,10 +17981,10 @@
         <v>127</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F24" s="9">
         <v>2</v>
@@ -17976,10 +18065,10 @@
         <v>130</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F25" s="9">
         <v>3</v>
@@ -18060,10 +18149,10 @@
         <v>133</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F26" s="9">
         <v>6</v>
@@ -18141,10 +18230,10 @@
         <v>136</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F27" s="9">
         <v>6</v>
@@ -18222,10 +18311,10 @@
         <v>140</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F28" s="9">
         <v>8</v>
@@ -18303,10 +18392,10 @@
         <v>143</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F29" s="9">
         <v>10</v>
@@ -18381,10 +18470,10 @@
         <v>147</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F30" s="9">
         <v>12</v>
@@ -18465,10 +18554,10 @@
         <v>153</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F31" s="9">
         <v>13</v>
@@ -18549,10 +18638,10 @@
         <v>159</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F32" s="9">
         <v>14</v>
@@ -18633,10 +18722,10 @@
         <v>162</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F33" s="9">
         <v>15</v>
@@ -18717,10 +18806,10 @@
         <v>165</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F34" s="9">
         <v>16</v>
@@ -18798,10 +18887,10 @@
         <v>167</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F35" s="9">
         <v>17</v>
@@ -18882,10 +18971,10 @@
         <v>171</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F36" s="9">
         <v>18</v>
@@ -18963,10 +19052,10 @@
         <v>176</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F37" s="9">
         <v>19</v>
@@ -19044,10 +19133,10 @@
         <v>179</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F38" s="9">
         <v>20</v>
@@ -19125,10 +19214,10 @@
         <v>182</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F39" s="9">
         <v>21</v>
@@ -19203,10 +19292,10 @@
         <v>185</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F40" s="9">
         <v>22</v>
@@ -19284,10 +19373,10 @@
         <v>189</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F41" s="9">
         <v>23</v>
@@ -19368,10 +19457,10 @@
         <v>191</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F42" s="9">
         <v>23</v>
@@ -19452,10 +19541,10 @@
         <v>195</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F43" s="9">
         <v>24</v>
@@ -19530,10 +19619,10 @@
         <v>198</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F44" s="9">
         <v>25</v>
@@ -19614,10 +19703,10 @@
         <v>202</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F45" s="9">
         <v>26</v>
@@ -19695,10 +19784,10 @@
         <v>204</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F46" s="9">
         <v>27</v>
@@ -19779,10 +19868,10 @@
         <v>207</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F47" s="9">
         <v>29</v>
@@ -19860,10 +19949,10 @@
         <v>209</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F48" s="9">
         <v>30</v>
@@ -19944,10 +20033,10 @@
         <v>212</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F49" s="9">
         <v>31</v>
@@ -20028,10 +20117,10 @@
         <v>215</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -20106,10 +20195,10 @@
         <v>217</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F51" s="9">
         <v>2</v>
@@ -20190,10 +20279,10 @@
         <v>220</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F52" s="9">
         <v>2</v>
@@ -20274,10 +20363,10 @@
         <v>223</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F53" s="9">
         <v>3</v>
@@ -20352,10 +20441,10 @@
         <v>225</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F54" s="9">
         <v>5</v>
@@ -20433,10 +20522,10 @@
         <v>229</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F55" s="9">
         <v>6</v>
@@ -20511,10 +20600,10 @@
         <v>232</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F56" s="9">
         <v>7</v>
@@ -20595,10 +20684,10 @@
         <v>235</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F57" s="9">
         <v>8</v>
@@ -20673,10 +20762,10 @@
         <v>239</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F58" s="9">
         <v>9</v>
@@ -20754,10 +20843,10 @@
         <v>242</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F59" s="9">
         <v>10</v>
@@ -20835,10 +20924,10 @@
         <v>246</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F60" s="9">
         <v>11</v>
@@ -20916,10 +21005,10 @@
         <v>248</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F61" s="9">
         <v>12</v>
@@ -20997,10 +21086,10 @@
         <v>251</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F62" s="9">
         <v>13</v>
@@ -21081,10 +21170,10 @@
         <v>254</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F63" s="9">
         <v>14</v>
@@ -21165,10 +21254,10 @@
         <v>257</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F64" s="9">
         <v>15</v>
@@ -21249,10 +21338,10 @@
         <v>262</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F65" s="9">
         <v>16</v>
@@ -21333,10 +21422,10 @@
         <v>265</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F66" s="9">
         <v>17</v>
@@ -21411,10 +21500,10 @@
         <v>268</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F67" s="9">
         <v>18</v>
@@ -21489,10 +21578,10 @@
         <v>271</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F68" s="9">
         <v>19</v>
@@ -21567,10 +21656,10 @@
         <v>274</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F69" s="9">
         <v>20</v>
@@ -21645,10 +21734,10 @@
         <v>276</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F70" s="9">
         <v>21</v>
@@ -21723,10 +21812,10 @@
         <v>278</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F71" s="9">
         <v>23</v>
@@ -21801,10 +21890,10 @@
         <v>280</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F72" s="9">
         <v>24</v>
@@ -21882,10 +21971,10 @@
         <v>283</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F73" s="9">
         <v>25</v>
@@ -21963,10 +22052,10 @@
         <v>286</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F74" s="9">
         <v>26</v>
@@ -22044,10 +22133,10 @@
         <v>288</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F75" s="9">
         <v>27</v>
@@ -22128,10 +22217,10 @@
         <v>291</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F76" s="9">
         <v>28</v>
@@ -22209,10 +22298,10 @@
         <v>294</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F77" s="9">
         <v>29</v>
@@ -22290,10 +22379,10 @@
         <v>298</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F78" s="9">
         <v>30</v>
@@ -22374,10 +22463,10 @@
         <v>301</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F79" s="9">
         <v>1</v>
@@ -22458,10 +22547,10 @@
         <v>305</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F80" s="9">
         <v>2</v>
@@ -22539,10 +22628,10 @@
         <v>308</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F81" s="9">
         <v>3</v>
@@ -22623,10 +22712,10 @@
         <v>311</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F82" s="9">
         <v>4</v>
@@ -22704,10 +22793,10 @@
         <v>314</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F83" s="9">
         <v>5</v>
@@ -22788,10 +22877,10 @@
         <v>316</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F84" s="9">
         <v>7</v>
@@ -22866,10 +22955,10 @@
         <v>319</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F85" s="9">
         <v>8</v>
@@ -22947,10 +23036,10 @@
         <v>322</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F86" s="9">
         <v>9</v>
@@ -23028,10 +23117,10 @@
         <v>326</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F87" s="9">
         <v>10</v>
@@ -23109,10 +23198,10 @@
         <v>329</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F88" s="9">
         <v>11</v>
@@ -23187,10 +23276,10 @@
         <v>332</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F89" s="9">
         <v>12</v>
@@ -23265,10 +23354,10 @@
         <v>334</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F90" s="9">
         <v>17</v>
@@ -23349,10 +23438,10 @@
         <v>336</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F91" s="9">
         <v>18</v>
@@ -23433,10 +23522,10 @@
         <v>338</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F92" s="9">
         <v>20</v>
@@ -23511,10 +23600,10 @@
         <v>342</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F93" s="9">
         <v>21</v>
@@ -23589,10 +23678,10 @@
         <v>345</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F94" s="9">
         <v>22</v>
@@ -23670,10 +23759,10 @@
         <v>348</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F95" s="9">
         <v>24</v>
@@ -23748,10 +23837,10 @@
         <v>351</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F96" s="9">
         <v>25</v>
@@ -23829,10 +23918,10 @@
         <v>354</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F97" s="9">
         <v>26</v>
@@ -23907,10 +23996,10 @@
         <v>357</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F98" s="9">
         <v>27</v>
@@ -23988,10 +24077,10 @@
         <v>360</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F99" s="9">
         <v>28</v>
@@ -24069,10 +24158,10 @@
         <v>363</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F100" s="9">
         <v>29</v>
@@ -24153,10 +24242,10 @@
         <v>366</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F101" s="9">
         <v>30</v>
@@ -24234,10 +24323,10 @@
         <v>369</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F102" s="9">
         <v>31</v>
@@ -24315,10 +24404,10 @@
         <v>371</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F103" s="9">
         <v>1</v>
@@ -24396,10 +24485,10 @@
         <v>374</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F104" s="9">
         <v>2</v>
@@ -24477,10 +24566,10 @@
         <v>376</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F105" s="9">
         <v>3</v>
@@ -24558,10 +24647,10 @@
         <v>380</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F106" s="9">
         <v>4</v>
@@ -24636,10 +24725,10 @@
         <v>383</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F107" s="9">
         <v>5</v>
@@ -24717,10 +24806,10 @@
         <v>386</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F108" s="9">
         <v>7</v>
@@ -24801,10 +24890,10 @@
         <v>391</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F109" s="9">
         <v>8</v>
@@ -24882,10 +24971,10 @@
         <v>394</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F110" s="9">
         <v>9</v>
@@ -24966,10 +25055,10 @@
         <v>396</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F111" s="9">
         <v>10</v>
@@ -25050,10 +25139,10 @@
         <v>401</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F112" s="9">
         <v>11</v>
@@ -25131,10 +25220,10 @@
         <v>404</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F113" s="9">
         <v>12</v>
@@ -25215,10 +25304,10 @@
         <v>407</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F114" s="9">
         <v>13</v>
@@ -25296,10 +25385,10 @@
         <v>410</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F115" s="9">
         <v>14</v>
@@ -25374,10 +25463,10 @@
         <v>414</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F116" s="9">
         <v>15</v>
@@ -25455,10 +25544,10 @@
         <v>417</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F117" s="9">
         <v>16</v>
@@ -25533,10 +25622,10 @@
         <v>419</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F118" s="9">
         <v>18</v>
@@ -25611,10 +25700,10 @@
         <v>422</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F119" s="9">
         <v>19</v>
@@ -25692,10 +25781,10 @@
         <v>424</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F120" s="9">
         <v>20</v>
@@ -25773,10 +25862,10 @@
         <v>427</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F121" s="9">
         <v>21</v>
@@ -25851,10 +25940,10 @@
         <v>430</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F122" s="9">
         <v>22</v>
@@ -25929,10 +26018,10 @@
         <v>432</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F123" s="9">
         <v>23</v>
@@ -26007,10 +26096,10 @@
         <v>435</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F124" s="9">
         <v>24</v>
@@ -26091,10 +26180,10 @@
         <v>439</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F125" s="9">
         <v>25</v>
@@ -26172,10 +26261,10 @@
         <v>442</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F126" s="9">
         <v>26</v>
@@ -26256,10 +26345,10 @@
         <v>445</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F127" s="9">
         <v>28</v>
@@ -26340,10 +26429,10 @@
         <v>450</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F128" s="9">
         <v>29</v>
@@ -26424,10 +26513,10 @@
         <v>453</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F129" s="9">
         <v>30</v>
@@ -26505,10 +26594,10 @@
         <v>456</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F130" s="9">
         <v>31</v>
@@ -26583,10 +26672,10 @@
         <v>458</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F131" s="9">
         <v>1</v>
@@ -26667,10 +26756,10 @@
         <v>460</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F132" s="9">
         <v>1</v>
@@ -26751,10 +26840,10 @@
         <v>462</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F133" s="9">
         <v>2</v>
@@ -26832,10 +26921,10 @@
         <v>465</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F134" s="9">
         <v>3</v>
@@ -26910,10 +26999,10 @@
         <v>467</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F135" s="9">
         <v>4</v>
@@ -26991,10 +27080,10 @@
         <v>469</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F136" s="9">
         <v>5</v>
@@ -27069,10 +27158,10 @@
         <v>472</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F137" s="9">
         <v>6</v>
@@ -27150,10 +27239,10 @@
         <v>474</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F138" s="9">
         <v>7</v>
@@ -27234,10 +27323,10 @@
         <v>476</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F139" s="9">
         <v>8</v>
@@ -27315,10 +27404,10 @@
         <v>478</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F140" s="9">
         <v>9</v>
@@ -27413,7 +27502,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -27441,12 +27530,12 @@
         <v>489</v>
       </c>
       <c r="F4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B5" s="5">
         <v>42</v>
@@ -27465,7 +27554,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B6" s="5">
         <v>40</v>
@@ -27512,7 +27601,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -27542,7 +27631,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B14" s="7">
         <v>0.61764705882352944</v>
@@ -27559,7 +27648,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B15" s="7">
         <v>0.56338028169014087</v>
@@ -27640,7 +27729,7 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="B3" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -27648,15 +27737,15 @@
         <v>487</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B5" s="5">
         <v>241</v>
@@ -27671,7 +27760,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B6" s="5">
         <v>384</v>
@@ -27708,7 +27797,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -27716,10 +27805,10 @@
         <v>487</v>
       </c>
       <c r="B12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D12" t="s">
         <v>491</v>
@@ -27727,7 +27816,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B13" s="5">
         <v>241</v>
@@ -27741,7 +27830,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B14" s="5">
         <v>384</v>
@@ -27777,15 +27866,15 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B18" s="8">
         <f>B13/D13</f>
@@ -27802,7 +27891,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B19" s="8">
         <f>B14/D14</f>
@@ -27819,7 +27908,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B20" s="8">
         <f>B16/D16</f>
@@ -27886,12 +27975,12 @@
         <v>489</v>
       </c>
       <c r="F2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
@@ -27910,7 +27999,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B4" s="5">
         <v>16</v>
@@ -27929,7 +28018,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B5" s="5">
         <v>17</v>
@@ -27948,7 +28037,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B6" s="5">
         <v>15</v>
@@ -27967,7 +28056,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B7" s="5">
         <v>18</v>
@@ -27986,7 +28075,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
@@ -28058,7 +28147,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B15" s="5">
         <v>10</v>
@@ -28077,7 +28166,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B16" s="5">
         <v>9</v>
@@ -28096,7 +28185,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B17" s="5">
         <v>14</v>
@@ -28115,7 +28204,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B18" s="5">
         <v>15</v>
@@ -28134,7 +28223,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B19" s="5">
         <v>5</v>
@@ -28153,7 +28242,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B20" s="5">
         <v>14</v>
@@ -28172,7 +28261,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B21" s="5">
         <v>15</v>
@@ -28240,7 +28329,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B29" s="5">
         <v>10</v>
@@ -28278,7 +28367,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B31" s="5">
         <v>9</v>
@@ -28333,7 +28422,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B34" s="5">
         <v>14</v>
@@ -28390,7 +28479,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B37" s="5">
         <v>15</v>
@@ -28447,7 +28536,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -28504,7 +28593,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B43" s="5">
         <v>14</v>
@@ -28559,7 +28648,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B46" s="5">
         <v>15</v>
@@ -28677,7 +28766,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -28685,18 +28774,18 @@
         <v>487</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B3" s="11">
         <v>30873.691176470587</v>
@@ -28710,7 +28799,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B4" s="11">
         <v>34586</v>
@@ -28724,7 +28813,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B5" s="11">
         <v>26072.5</v>
@@ -28738,7 +28827,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B6" s="11">
         <v>25229.272727272728</v>
@@ -28752,7 +28841,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B7" s="11">
         <v>27838.3</v>
@@ -28766,7 +28855,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B8" s="11">
         <v>31521</v>
@@ -28780,7 +28869,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B9" s="11">
         <v>33867.090909090912</v>
@@ -28794,7 +28883,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B10" s="11">
         <v>36979.818181818184</v>
@@ -28808,7 +28897,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B11" s="11">
         <v>31192.915492957745</v>
@@ -28822,7 +28911,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B12" s="11">
         <v>36575.4</v>
@@ -28836,7 +28925,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B13" s="11">
         <v>27682</v>
@@ -28850,7 +28939,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B14" s="11">
         <v>27556.666666666668</v>
@@ -28864,7 +28953,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B15" s="11">
         <v>24566.307692307691</v>
@@ -28878,7 +28967,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B16" s="11">
         <v>28548.571428571428</v>
@@ -28892,7 +28981,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B17" s="11">
         <v>35663.454545454544</v>
@@ -28906,7 +28995,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B18" s="11">
         <v>37544.454545454544</v>
@@ -28946,6 +29035,71 @@
       </c>
       <c r="D21" s="5">
         <v>49303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="5">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/class3/rockies_analyzed.xlsx
+++ b/class3/rockies_analyzed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -1734,11 +1734,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1776,7 +1792,7 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="38">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1787,6 +1803,14 @@
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1797,45 +1821,29 @@
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -7133,7 +7141,7 @@
     <dataField name="Max of Attendance" fld="24" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7142,7 +7150,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="7">
@@ -7160,7 +7168,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -7169,7 +7177,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="7">
@@ -7601,8 +7609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16058,8 +16066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="A1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
